--- a/ArticleManage/main_working_folder/output_folders/Data 111 Preparation and characterization of/Data111_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 111 Preparation and characterization of/Data111_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="ADS1-900_700" sheetId="1" r:id="rId1"/>
-    <sheet name="ADS1-900_800" sheetId="2" r:id="rId4"/>
-    <sheet name="ADS1-900_900" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 ADS1-900_700  0-1-0-25" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 ADS1-900_800  0-1-0-25" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 ADS1-900_900  0-1-0-25" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -105,7 +105,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ADS1-900_700</a:t>
+              <a:t>Izoterma adsorpcji probki ADS1-900_700 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ADS1-900_700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 ADS1-900_700  0-1-0-25'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ADS1-900_700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 ADS1-900_700  0-1-0-25'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -182,6 +182,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -251,6 +253,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -415,7 +419,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ADS1-900_800</a:t>
+              <a:t>Izoterma adsorpcji probki ADS1-900_800 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -474,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ADS1-900_800'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 ADS1-900_800  0-1-0-25'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ADS1-900_800'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 ADS1-900_800  0-1-0-25'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -492,6 +496,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -561,6 +567,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -725,7 +733,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ADS1-900_900</a:t>
+              <a:t>Izoterma adsorpcji probki ADS1-900_900 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -784,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ADS1-900_900'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 ADS1-900_900  0-1-0-25'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ADS1-900_900'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 ADS1-900_900  0-1-0-25'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -802,6 +810,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -871,6 +881,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 111 Preparation and characterization of/Data111_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 111 Preparation and characterization of/Data111_all_graphs_excel.xlsx
@@ -3099,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3120,565 +3120,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0077</v>
+        <v>0.9942</v>
       </c>
       <c r="B3" s="0">
-        <v>172.2399</v>
+        <v>208.8441</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0033</v>
+        <v>0.9755</v>
       </c>
       <c r="B4" s="0">
-        <v>158.8727</v>
+        <v>204.9037</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0212</v>
+        <v>0.9496</v>
       </c>
       <c r="B5" s="0">
-        <v>178.8039</v>
+        <v>202.7145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0357</v>
+        <v>0.9007</v>
       </c>
       <c r="B6" s="0">
-        <v>182.0274</v>
+        <v>201.8389</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0498</v>
+        <v>0.8748</v>
       </c>
       <c r="B7" s="0">
-        <v>184.004</v>
+        <v>201.8389</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.065</v>
+        <v>0.8504</v>
       </c>
       <c r="B8" s="0">
-        <v>185.5516</v>
+        <v>201.4011</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0795</v>
+        <v>0.8252</v>
       </c>
       <c r="B9" s="0">
-        <v>186.6151</v>
+        <v>201.4011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0941</v>
+        <v>0.8</v>
       </c>
       <c r="B10" s="0">
-        <v>187.2752</v>
+        <v>200.9632</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1084</v>
+        <v>0.7504</v>
       </c>
       <c r="B11" s="0">
-        <v>187.9573</v>
+        <v>200.0876</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1233</v>
+        <v>0.7007</v>
       </c>
       <c r="B12" s="0">
-        <v>188.8887</v>
+        <v>199.2119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1379</v>
+        <v>0.6511</v>
       </c>
       <c r="B13" s="0">
-        <v>189.5855</v>
+        <v>198.3363</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1525</v>
+        <v>0.6</v>
       </c>
       <c r="B14" s="0">
-        <v>190.0256</v>
+        <v>197.8984</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1651</v>
+        <v>0.5511</v>
       </c>
       <c r="B15" s="0">
-        <v>190.4813</v>
+        <v>197.0228</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1816</v>
+        <v>0.5</v>
       </c>
       <c r="B16" s="0">
-        <v>191.0524</v>
+        <v>197.0228</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1962</v>
+        <v>0.4504</v>
       </c>
       <c r="B17" s="0">
-        <v>191.4191</v>
+        <v>195.7093</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2108</v>
+        <v>0.4</v>
       </c>
       <c r="B18" s="0">
-        <v>191.8592</v>
+        <v>195.2715</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2254</v>
+        <v>0.3</v>
       </c>
       <c r="B19" s="0">
-        <v>192.1892</v>
+        <v>193.5201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2399</v>
+        <v>0.2504</v>
       </c>
       <c r="B20" s="0">
-        <v>192.4826</v>
+        <v>193.0823</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2545</v>
+        <v>0.1993</v>
       </c>
       <c r="B21" s="0">
-        <v>192.6659</v>
+        <v>191.7688</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2691</v>
+        <v>0.1612</v>
       </c>
       <c r="B22" s="0">
-        <v>192.5559</v>
+        <v>190.8932</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2837</v>
+        <v>0.1403</v>
       </c>
       <c r="B23" s="0">
-        <v>192.8493</v>
+        <v>190.0175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2983</v>
+        <v>0.1209</v>
       </c>
       <c r="B24" s="0">
-        <v>193.4361</v>
+        <v>189.1419</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3129</v>
+        <v>0.1007</v>
       </c>
       <c r="B25" s="0">
-        <v>193.3627</v>
+        <v>188.2662</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.3274</v>
+        <v>0.0799</v>
       </c>
       <c r="B26" s="0">
-        <v>193.3627</v>
+        <v>186.5149</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.342</v>
+        <v>0.0719</v>
       </c>
       <c r="B27" s="0">
-        <v>193.7294</v>
+        <v>186.0771</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.3566</v>
+        <v>0.0496</v>
       </c>
       <c r="B28" s="0">
-        <v>193.8028</v>
+        <v>183.8879</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.3712</v>
+        <v>0.0273</v>
       </c>
       <c r="B29" s="0">
-        <v>194.1695</v>
+        <v>181.2609</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.3858</v>
+        <v>0.0101</v>
       </c>
       <c r="B30" s="0">
-        <v>194.2795</v>
+        <v>174.2557</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.4004</v>
+        <v>0.0014</v>
       </c>
       <c r="B31" s="0">
-        <v>194.8663</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.4149</v>
-      </c>
-      <c r="B32" s="0">
-        <v>194.8663</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.4295</v>
-      </c>
-      <c r="B33" s="0">
-        <v>194.9763</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.4442</v>
-      </c>
-      <c r="B34" s="0">
-        <v>195.0166</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.4587</v>
-      </c>
-      <c r="B35" s="0">
-        <v>195.6364</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.4733</v>
-      </c>
-      <c r="B36" s="0">
-        <v>195.7831</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.4879</v>
-      </c>
-      <c r="B37" s="0">
-        <v>196.0031</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.5024</v>
-      </c>
-      <c r="B38" s="0">
-        <v>196.3698</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.517</v>
-      </c>
-      <c r="B39" s="0">
-        <v>196.5165</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.5316</v>
-      </c>
-      <c r="B40" s="0">
-        <v>196.5899</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.5462</v>
-      </c>
-      <c r="B41" s="0">
-        <v>196.6265</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.5608</v>
-      </c>
-      <c r="B42" s="0">
-        <v>197.3233</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.5748</v>
-      </c>
-      <c r="B43" s="0">
-        <v>197.3966</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.5909</v>
-      </c>
-      <c r="B44" s="0">
-        <v>197.8505</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.6045</v>
-      </c>
-      <c r="B45" s="0">
-        <v>197.7267</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.6191</v>
-      </c>
-      <c r="B46" s="0">
-        <v>198.2034</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.6337</v>
-      </c>
-      <c r="B47" s="0">
-        <v>198.2034</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.6483</v>
-      </c>
-      <c r="B48" s="0">
-        <v>198.2034</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.6628</v>
-      </c>
-      <c r="B49" s="0">
-        <v>198.7902</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.6774</v>
-      </c>
-      <c r="B50" s="0">
-        <v>199.0102</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.692</v>
-      </c>
-      <c r="B51" s="0">
-        <v>199.0102</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.7066</v>
-      </c>
-      <c r="B52" s="0">
-        <v>199.0102</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.7212</v>
-      </c>
-      <c r="B53" s="0">
-        <v>199.5236</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.7358</v>
-      </c>
-      <c r="B54" s="0">
-        <v>199.817</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.7503</v>
-      </c>
-      <c r="B55" s="0">
-        <v>199.7437</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.7649</v>
-      </c>
-      <c r="B56" s="0">
-        <v>200.147</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.7795</v>
-      </c>
-      <c r="B57" s="0">
-        <v>200.2204</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.7941</v>
-      </c>
-      <c r="B58" s="0">
-        <v>200.3671</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>0.8087</v>
-      </c>
-      <c r="B59" s="0">
-        <v>200.5504</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>0.8232</v>
-      </c>
-      <c r="B60" s="0">
-        <v>200.8438</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>0.8359</v>
-      </c>
-      <c r="B61" s="0">
-        <v>200.6814</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0">
-        <v>0.8524</v>
-      </c>
-      <c r="B62" s="0">
-        <v>201.1739</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0">
-        <v>0.867</v>
-      </c>
-      <c r="B63" s="0">
-        <v>201.5039</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0">
-        <v>0.8816</v>
-      </c>
-      <c r="B64" s="0">
-        <v>201.5773</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0">
-        <v>0.8962</v>
-      </c>
-      <c r="B65" s="0">
-        <v>201.6139</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0">
-        <v>0.9107</v>
-      </c>
-      <c r="B66" s="0">
-        <v>201.4672</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0">
-        <v>0.9253</v>
-      </c>
-      <c r="B67" s="0">
-        <v>202.0907</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0">
-        <v>0.9399</v>
-      </c>
-      <c r="B68" s="0">
-        <v>202.3474</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0">
-        <v>0.9532</v>
-      </c>
-      <c r="B69" s="0">
-        <v>202.7752</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0">
-        <v>0.9717</v>
-      </c>
-      <c r="B70" s="0">
-        <v>204.3277</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0">
-        <v>0.9863</v>
-      </c>
-      <c r="B71" s="0">
-        <v>206.748</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="0">
-        <v>0.9969</v>
-      </c>
-      <c r="B72" s="0">
-        <v>208.6916</v>
-      </c>
-    </row>
-    <row r="73"/>
+        <v>160.683</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3687,7 +3359,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3708,637 +3380,309 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0002</v>
+        <v>0.9964</v>
       </c>
       <c r="B3" s="0">
-        <v>163.0651</v>
+        <v>224.1681</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0001</v>
+        <v>0.977</v>
       </c>
       <c r="B4" s="0">
-        <v>142.0891</v>
+        <v>220.2277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0007</v>
+        <v>0.9525</v>
       </c>
       <c r="B5" s="0">
-        <v>124.786</v>
+        <v>218.4764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0008</v>
+        <v>0.9014</v>
       </c>
       <c r="B6" s="0">
-        <v>103.2333</v>
+        <v>217.1629</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0008</v>
+        <v>0.8763</v>
       </c>
       <c r="B7" s="0">
-        <v>83.0061</v>
+        <v>217.1629</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0008</v>
+        <v>0.8518</v>
       </c>
       <c r="B8" s="0">
-        <v>62.8365</v>
+        <v>215.8494</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0008</v>
+        <v>0.8266</v>
       </c>
       <c r="B9" s="0">
-        <v>42.7245</v>
+        <v>215.8494</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0008</v>
+        <v>0.7993</v>
       </c>
       <c r="B10" s="0">
-        <v>22.0362</v>
+        <v>215.8494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0033</v>
+        <v>0.7504</v>
       </c>
       <c r="B11" s="0">
-        <v>178.7902</v>
+        <v>214.9737</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0007</v>
+        <v>0.7007</v>
       </c>
       <c r="B12" s="0">
-        <v>153.1848</v>
+        <v>214.5359</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0106</v>
+        <v>0.6496</v>
       </c>
       <c r="B13" s="0">
-        <v>189.9155</v>
+        <v>213.2224</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0252</v>
+        <v>0.6</v>
       </c>
       <c r="B14" s="0">
-        <v>196.8466</v>
+        <v>214.0981</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0398</v>
+        <v>0.5705</v>
       </c>
       <c r="B15" s="0">
-        <v>200.147</v>
+        <v>212.3468</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0544</v>
+        <v>0.5201</v>
       </c>
       <c r="B16" s="0">
-        <v>202.0173</v>
+        <v>212.3468</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0689</v>
+        <v>0.4691</v>
       </c>
       <c r="B17" s="0">
-        <v>203.1175</v>
+        <v>212.7846</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0835</v>
+        <v>0.4007</v>
       </c>
       <c r="B18" s="0">
-        <v>204.3643</v>
+        <v>211.4711</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0981</v>
+        <v>0.3</v>
       </c>
       <c r="B19" s="0">
-        <v>205.7212</v>
+        <v>211.4711</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1127</v>
+        <v>0.2496</v>
       </c>
       <c r="B20" s="0">
-        <v>206.1246</v>
+        <v>210.5954</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1273</v>
+        <v>0.2</v>
       </c>
       <c r="B21" s="0">
-        <v>206.8214</v>
+        <v>208.4063</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1418</v>
+        <v>0.1612</v>
       </c>
       <c r="B22" s="0">
-        <v>207.2247</v>
+        <v>208.4063</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1564</v>
+        <v>0.141</v>
       </c>
       <c r="B23" s="0">
-        <v>207.8848</v>
+        <v>207.5306</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.171</v>
+        <v>0.1187</v>
       </c>
       <c r="B24" s="0">
-        <v>208.2149</v>
+        <v>206.2172</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1856</v>
+        <v>0.1</v>
       </c>
       <c r="B25" s="0">
-        <v>208.6916</v>
+        <v>206.2172</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.2002</v>
+        <v>0.0806</v>
       </c>
       <c r="B26" s="0">
-        <v>208.6916</v>
+        <v>204.4658</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.2148</v>
+        <v>0.0626</v>
       </c>
       <c r="B27" s="0">
-        <v>209.095</v>
+        <v>202.7145</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.2293</v>
+        <v>0.0489</v>
       </c>
       <c r="B28" s="0">
-        <v>209.3884</v>
+        <v>201.8389</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.2439</v>
+        <v>0.0331</v>
       </c>
       <c r="B29" s="0">
-        <v>209.8651</v>
+        <v>199.6497</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.2585</v>
+        <v>0.0223</v>
       </c>
       <c r="B30" s="0">
-        <v>209.9752</v>
+        <v>195.7093</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.2731</v>
+        <v>0.0101</v>
       </c>
       <c r="B31" s="0">
-        <v>210.1218</v>
+        <v>189.5797</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.2877</v>
+        <v>0.0029</v>
       </c>
       <c r="B32" s="0">
-        <v>210.4152</v>
+        <v>178.634</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.3023</v>
+        <v>-0.0007</v>
       </c>
       <c r="B33" s="0">
-        <v>211.1853</v>
+        <v>161.9965</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.3168</v>
+        <v>-0.0007</v>
       </c>
       <c r="B34" s="0">
-        <v>210.3052</v>
+        <v>142.2942</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.3314</v>
+        <v>0</v>
       </c>
       <c r="B35" s="0">
-        <v>210.6719</v>
+        <v>122.5919</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="B36" s="0">
-        <v>210.7453</v>
+        <v>102.014</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.3606</v>
+        <v>0</v>
       </c>
       <c r="B37" s="0">
-        <v>211.0386</v>
+        <v>81.4361</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.3752</v>
+        <v>0.0007</v>
       </c>
       <c r="B38" s="0">
-        <v>211.002</v>
+        <v>61.296</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.3898</v>
+        <v>0</v>
       </c>
       <c r="B39" s="0">
-        <v>211.2587</v>
+        <v>40.718</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.4043</v>
+        <v>0</v>
       </c>
       <c r="B40" s="0">
-        <v>211.7354</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.4189</v>
-      </c>
-      <c r="B41" s="0">
-        <v>211.5154</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.4335</v>
-      </c>
-      <c r="B42" s="0">
-        <v>211.5154</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.4481</v>
-      </c>
-      <c r="B43" s="0">
-        <v>211.5154</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.4627</v>
-      </c>
-      <c r="B44" s="0">
-        <v>212.3588</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.4772</v>
-      </c>
-      <c r="B45" s="0">
-        <v>212.3955</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.4918</v>
-      </c>
-      <c r="B46" s="0">
-        <v>212.3222</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.5064</v>
-      </c>
-      <c r="B47" s="0">
-        <v>212.3222</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.521</v>
-      </c>
-      <c r="B48" s="0">
-        <v>212.6155</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.5356</v>
-      </c>
-      <c r="B49" s="0">
-        <v>212.3222</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.5502</v>
-      </c>
-      <c r="B50" s="0">
-        <v>212.3222</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.5647</v>
-      </c>
-      <c r="B51" s="0">
-        <v>212.6889</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.5793</v>
-      </c>
-      <c r="B52" s="0">
-        <v>212.7989</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.5939</v>
-      </c>
-      <c r="B53" s="0">
-        <v>213.0923</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.6085</v>
-      </c>
-      <c r="B54" s="0">
-        <v>213.0923</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.6231</v>
-      </c>
-      <c r="B55" s="0">
-        <v>213.1289</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.6377</v>
-      </c>
-      <c r="B56" s="0">
-        <v>213.1289</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.6522</v>
-      </c>
-      <c r="B57" s="0">
-        <v>213.0923</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.6668</v>
-      </c>
-      <c r="B58" s="0">
-        <v>213.1289</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>0.6814</v>
-      </c>
-      <c r="B59" s="0">
-        <v>213.1289</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>0.696</v>
-      </c>
-      <c r="B60" s="0">
-        <v>214.0091</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>0.7106</v>
-      </c>
-      <c r="B61" s="0">
-        <v>213.7524</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0">
-        <v>0.7251</v>
-      </c>
-      <c r="B62" s="0">
-        <v>213.9357</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0">
-        <v>0.7397</v>
-      </c>
-      <c r="B63" s="0">
-        <v>214.1558</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0">
-        <v>0.7543</v>
-      </c>
-      <c r="B64" s="0">
-        <v>214.8525</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0">
-        <v>0.7689</v>
-      </c>
-      <c r="B65" s="0">
-        <v>214.3391</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0">
-        <v>0.7835</v>
-      </c>
-      <c r="B66" s="0">
-        <v>214.7425</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0">
-        <v>0.7981</v>
-      </c>
-      <c r="B67" s="0">
-        <v>215.6226</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0">
-        <v>0.8126</v>
-      </c>
-      <c r="B68" s="0">
-        <v>215.2193</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0">
-        <v>0.8272</v>
-      </c>
-      <c r="B69" s="0">
-        <v>215.4026</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0">
-        <v>0.8418</v>
-      </c>
-      <c r="B70" s="0">
-        <v>215.9894</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0">
-        <v>0.8564</v>
-      </c>
-      <c r="B71" s="0">
-        <v>215.9894</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="0">
-        <v>0.871</v>
-      </c>
-      <c r="B72" s="0">
-        <v>216.8328</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="0">
-        <v>0.8856</v>
-      </c>
-      <c r="B73" s="0">
-        <v>216.8695</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="0">
-        <v>0.9001</v>
-      </c>
-      <c r="B74" s="0">
-        <v>216.9428</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="0">
-        <v>0.9147</v>
-      </c>
-      <c r="B75" s="0">
-        <v>217.5663</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="0">
-        <v>0.9293</v>
-      </c>
-      <c r="B76" s="0">
-        <v>217.5663</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="0">
-        <v>0.9439</v>
-      </c>
-      <c r="B77" s="0">
-        <v>218.1163</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="0">
-        <v>0.9585</v>
-      </c>
-      <c r="B78" s="0">
-        <v>218.5564</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="0">
-        <v>0.973</v>
-      </c>
-      <c r="B79" s="0">
-        <v>219.8033</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="0">
-        <v>0.9876</v>
-      </c>
-      <c r="B80" s="0">
-        <v>221.9302</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="0">
-        <v>0.9982</v>
-      </c>
-      <c r="B81" s="0">
-        <v>223.6978</v>
-      </c>
-    </row>
-    <row r="82"/>
+        <v>21.0158</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4347,7 +3691,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4368,613 +3712,317 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0012</v>
+        <v>0.9942</v>
       </c>
       <c r="B3" s="0">
-        <v>100.2163</v>
+        <v>191.7688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0005</v>
+        <v>0.9755</v>
       </c>
       <c r="B4" s="0">
-        <v>118.7962</v>
+        <v>185.2014</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0007</v>
+        <v>0.9683</v>
       </c>
       <c r="B5" s="0">
-        <v>80.0128</v>
+        <v>184.3257</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0007</v>
+        <v>0.9007</v>
       </c>
       <c r="B6" s="0">
-        <v>37.1019</v>
+        <v>181.6988</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0007</v>
+        <v>0.8755</v>
       </c>
       <c r="B7" s="0">
-        <v>19.2048</v>
+        <v>180.8231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0003</v>
+        <v>0.8683</v>
       </c>
       <c r="B8" s="0">
-        <v>62.2602</v>
+        <v>180.8231</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0034</v>
+        <v>0.8252</v>
       </c>
       <c r="B9" s="0">
-        <v>138.8017</v>
+        <v>179.9475</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0102</v>
+        <v>0.818</v>
       </c>
       <c r="B10" s="0">
-        <v>146.2779</v>
+        <v>179.5096</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0207</v>
+        <v>0.7489</v>
       </c>
       <c r="B11" s="0">
-        <v>151.2939</v>
+        <v>178.634</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0358</v>
+        <v>0.6993</v>
       </c>
       <c r="B12" s="0">
-        <v>157.6001</v>
+        <v>177.7583</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0504</v>
+        <v>0.6691</v>
       </c>
       <c r="B13" s="0">
-        <v>160.8753</v>
+        <v>177.3205</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.065</v>
+        <v>0.6</v>
       </c>
       <c r="B14" s="0">
-        <v>162.9494</v>
+        <v>176.4448</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0795</v>
+        <v>0.5489</v>
       </c>
       <c r="B15" s="0">
-        <v>165.003</v>
+        <v>176.8827</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0941</v>
+        <v>0.518</v>
       </c>
       <c r="B16" s="0">
-        <v>166.201</v>
+        <v>176.4448</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1087</v>
+        <v>0.4691</v>
       </c>
       <c r="B17" s="0">
-        <v>166.9197</v>
+        <v>175.5692</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1233</v>
+        <v>0.3993</v>
       </c>
       <c r="B18" s="0">
-        <v>167.5089</v>
+        <v>175.1313</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1379</v>
+        <v>0.3</v>
       </c>
       <c r="B19" s="0">
-        <v>168.3365</v>
+        <v>173.8179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1525</v>
+        <v>0.2504</v>
       </c>
       <c r="B20" s="0">
-        <v>169.4281</v>
+        <v>172.9422</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.167</v>
+        <v>0.1993</v>
       </c>
       <c r="B21" s="0">
-        <v>170.1505</v>
+        <v>170.7531</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1816</v>
+        <v>0.1612</v>
       </c>
       <c r="B22" s="0">
-        <v>170.7727</v>
+        <v>169.8774</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1962</v>
+        <v>0.1396</v>
       </c>
       <c r="B23" s="0">
-        <v>170.6432</v>
+        <v>168.1261</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2108</v>
+        <v>0.1209</v>
       </c>
       <c r="B24" s="0">
-        <v>171.3228</v>
+        <v>167.6883</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.2254</v>
+        <v>0.1</v>
       </c>
       <c r="B25" s="0">
-        <v>172.3863</v>
+        <v>165.937</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.2399</v>
+        <v>0.0799</v>
       </c>
       <c r="B26" s="0">
-        <v>172.2396</v>
+        <v>164.6235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.2545</v>
+        <v>0.0676</v>
       </c>
       <c r="B27" s="0">
-        <v>172.5379</v>
+        <v>162.8722</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.2691</v>
+        <v>0.0583</v>
       </c>
       <c r="B28" s="0">
-        <v>173.3765</v>
+        <v>162.4343</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.2837</v>
+        <v>0.0496</v>
       </c>
       <c r="B29" s="0">
-        <v>173.9265</v>
+        <v>161.1208</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.2983</v>
+        <v>0.0403</v>
       </c>
       <c r="B30" s="0">
-        <v>173.8239</v>
+        <v>159.3695</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.3129</v>
+        <v>0.0309</v>
       </c>
       <c r="B31" s="0">
-        <v>174.8067</v>
+        <v>156.3047</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.3274</v>
+        <v>0.0223</v>
       </c>
       <c r="B32" s="0">
-        <v>174.8067</v>
+        <v>153.6778</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.342</v>
+        <v>0.0151</v>
       </c>
       <c r="B33" s="0">
-        <v>175.1734</v>
+        <v>149.7373</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.3566</v>
+        <v>0.0086</v>
       </c>
       <c r="B34" s="0">
-        <v>175.6135</v>
+        <v>144.0455</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.3712</v>
+        <v>0.0029</v>
       </c>
       <c r="B35" s="0">
-        <v>175.6135</v>
+        <v>135.289</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.3858</v>
+        <v>0</v>
       </c>
       <c r="B36" s="0">
-        <v>175.6135</v>
+        <v>119.965</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.4004</v>
+        <v>0</v>
       </c>
       <c r="B37" s="0">
-        <v>174.908</v>
+        <v>100.7005</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.4149</v>
+        <v>-0.0007</v>
       </c>
       <c r="B38" s="0">
-        <v>176.4202</v>
+        <v>80.1226</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.4295</v>
+        <v>-0.0007</v>
       </c>
       <c r="B39" s="0">
-        <v>176.4202</v>
+        <v>59.5447</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.4441</v>
+        <v>-0.0007</v>
       </c>
       <c r="B40" s="0">
-        <v>176.4202</v>
+        <v>39.4046</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.4587</v>
+        <v>0</v>
       </c>
       <c r="B41" s="0">
-        <v>176.2222</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.4733</v>
-      </c>
-      <c r="B42" s="0">
-        <v>176.584</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.4879</v>
-      </c>
-      <c r="B43" s="0">
-        <v>177.227</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.5024</v>
-      </c>
-      <c r="B44" s="0">
-        <v>177.227</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.517</v>
-      </c>
-      <c r="B45" s="0">
-        <v>176.7307</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.5316</v>
-      </c>
-      <c r="B46" s="0">
-        <v>177.227</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.5462</v>
-      </c>
-      <c r="B47" s="0">
-        <v>177.3725</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.5608</v>
-      </c>
-      <c r="B48" s="0">
-        <v>177.117</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.5753</v>
-      </c>
-      <c r="B49" s="0">
-        <v>177.227</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.5899</v>
-      </c>
-      <c r="B50" s="0">
-        <v>177.0437</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.6045</v>
-      </c>
-      <c r="B51" s="0">
-        <v>176.941</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.6191</v>
-      </c>
-      <c r="B52" s="0">
-        <v>177.337</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.6337</v>
-      </c>
-      <c r="B53" s="0">
-        <v>177.5571</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.6483</v>
-      </c>
-      <c r="B54" s="0">
-        <v>178.0338</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.6628</v>
-      </c>
-      <c r="B55" s="0">
-        <v>178.0717</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.6774</v>
-      </c>
-      <c r="B56" s="0">
-        <v>177.8566</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.692</v>
-      </c>
-      <c r="B57" s="0">
-        <v>178.5472</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.7066</v>
-      </c>
-      <c r="B58" s="0">
-        <v>178.469</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>0.7212</v>
-      </c>
-      <c r="B59" s="0">
-        <v>178.8406</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>0.7358</v>
-      </c>
-      <c r="B60" s="0">
-        <v>179.2807</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>0.7503</v>
-      </c>
-      <c r="B61" s="0">
-        <v>178.4934</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0">
-        <v>0.7649</v>
-      </c>
-      <c r="B62" s="0">
-        <v>179.6474</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0">
-        <v>0.7795</v>
-      </c>
-      <c r="B63" s="0">
-        <v>179.6474</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0">
-        <v>0.7941</v>
-      </c>
-      <c r="B64" s="0">
-        <v>180.1241</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0">
-        <v>0.8087</v>
-      </c>
-      <c r="B65" s="0">
-        <v>180.0581</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0">
-        <v>0.8232</v>
-      </c>
-      <c r="B66" s="0">
-        <v>179.6633</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0">
-        <v>0.8378</v>
-      </c>
-      <c r="B67" s="0">
-        <v>180.4908</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0">
-        <v>0.8524</v>
-      </c>
-      <c r="B68" s="0">
-        <v>181.0776</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0">
-        <v>0.867</v>
-      </c>
-      <c r="B69" s="0">
-        <v>181.1852</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0">
-        <v>0.8816</v>
-      </c>
-      <c r="B70" s="0">
-        <v>181.6228</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0">
-        <v>0.8962</v>
-      </c>
-      <c r="B71" s="0">
-        <v>181.5176</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="0">
-        <v>0.9107</v>
-      </c>
-      <c r="B72" s="0">
-        <v>181.811</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="0">
-        <v>0.9253</v>
-      </c>
-      <c r="B73" s="0">
-        <v>182.8378</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="0">
-        <v>0.9399</v>
-      </c>
-      <c r="B74" s="0">
-        <v>183.1679</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="0">
-        <v>0.9545</v>
-      </c>
-      <c r="B75" s="0">
-        <v>183.6813</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="0">
-        <v>0.9691</v>
-      </c>
-      <c r="B76" s="0">
-        <v>184.7509</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="0">
-        <v>0.9803</v>
-      </c>
-      <c r="B77" s="0">
-        <v>186.6299</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="0">
-        <v>0.9928</v>
-      </c>
-      <c r="B78" s="0">
-        <v>190.8932</v>
-      </c>
-    </row>
-    <row r="79"/>
+        <v>19.2644</v>
+      </c>
+    </row>
+    <row r="42"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 111 Preparation and characterization of/Data111_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 111 Preparation and characterization of/Data111_all_graphs_excel.xlsx
@@ -5,16 +5,18 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 ADS1-900_700  0-1-0-25" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 ADS1-900_800  0-1-0-25" sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 ADS1-900_900  0-1-0-25" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 ADS1-900_700  0&amp;1&amp;0&amp;25" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 ADS1-900_800  0&amp;1&amp;0&amp;25" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 ADS1-900_900  0&amp;1&amp;0&amp;25" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 ADS1-900-700  0&amp;1&amp;0&amp;25" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 ADS2-900-700  0&amp;1&amp;0&amp;25" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ADS1-900_700</t>
   </si>
@@ -29,6 +31,12 @@
   </si>
   <si>
     <t>ADS1-900_900</t>
+  </si>
+  <si>
+    <t>ADS1-900-700</t>
+  </si>
+  <si>
+    <t>ADS2-900-700</t>
   </si>
 </sst>
 </file>
@@ -164,12 +172,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 ADS1-900_700  0-1-0-25'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 ADS1-900_700  0&amp;1&amp;0&amp;25'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 ADS1-900_700  0-1-0-25'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 ADS1-900_700  0&amp;1&amp;0&amp;25'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -478,12 +486,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 ADS1-900_800  0-1-0-25'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 ADS1-900_800  0&amp;1&amp;0&amp;25'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 ADS1-900_800  0-1-0-25'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 ADS1-900_800  0&amp;1&amp;0&amp;25'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -792,12 +800,640 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 ADS1-900_900  0-1-0-25'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 ADS1-900_900  0&amp;1&amp;0&amp;25'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 ADS1-900_900  0-1-0-25'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 ADS1-900_900  0&amp;1&amp;0&amp;25'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki ADS1-900-700 z wykresu 'Figure 2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2 ADS1-900-700  0&amp;1&amp;0&amp;25'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2 ADS1-900-700  0&amp;1&amp;0&amp;25'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki ADS2-900-700 z wykresu 'Figure 2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2 ADS2-900-700  0&amp;1&amp;0&amp;25'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2 ADS2-900-700  0&amp;1&amp;0&amp;25'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1134,6 +1770,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -2177,6 +2893,1048 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2785,6 +4543,76 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4027,4 +5855,660 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9935</v>
+      </c>
+      <c r="B3" s="0">
+        <v>208.224</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9747</v>
+      </c>
+      <c r="B4" s="0">
+        <v>205.1619</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.949</v>
+      </c>
+      <c r="B5" s="0">
+        <v>203.6308</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8997</v>
+      </c>
+      <c r="B6" s="0">
+        <v>201.881</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.874</v>
+      </c>
+      <c r="B7" s="0">
+        <v>201.881</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8509</v>
+      </c>
+      <c r="B8" s="0">
+        <v>201.2248</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8259</v>
+      </c>
+      <c r="B9" s="0">
+        <v>201.4436</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8002</v>
+      </c>
+      <c r="B10" s="0">
+        <v>201.2248</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.7499</v>
+      </c>
+      <c r="B11" s="0">
+        <v>200.35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.6992</v>
+      </c>
+      <c r="B12" s="0">
+        <v>199.6938</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.6511</v>
+      </c>
+      <c r="B13" s="0">
+        <v>198.3815</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.6004</v>
+      </c>
+      <c r="B14" s="0">
+        <v>198.3815</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.5501</v>
+      </c>
+      <c r="B15" s="0">
+        <v>197.5066</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.5005</v>
+      </c>
+      <c r="B16" s="0">
+        <v>196.8504</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4502</v>
+      </c>
+      <c r="B17" s="0">
+        <v>195.7568</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.401</v>
+      </c>
+      <c r="B18" s="0">
+        <v>194.8819</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.3011</v>
+      </c>
+      <c r="B19" s="0">
+        <v>194.007</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2508</v>
+      </c>
+      <c r="B20" s="0">
+        <v>192.6947</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2009</v>
+      </c>
+      <c r="B21" s="0">
+        <v>192.0385</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.1603</v>
+      </c>
+      <c r="B22" s="0">
+        <v>190.5074</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1422</v>
+      </c>
+      <c r="B23" s="0">
+        <v>190.07</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1205</v>
+      </c>
+      <c r="B24" s="0">
+        <v>188.7577</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.1013</v>
+      </c>
+      <c r="B25" s="0">
+        <v>188.3202</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0811</v>
+      </c>
+      <c r="B26" s="0">
+        <v>187.0079</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0724</v>
+      </c>
+      <c r="B27" s="0">
+        <v>186.3517</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0503</v>
+      </c>
+      <c r="B28" s="0">
+        <v>183.9458</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0286</v>
+      </c>
+      <c r="B29" s="0">
+        <v>180.2275</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0116</v>
+      </c>
+      <c r="B30" s="0">
+        <v>174.9781</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0018</v>
+      </c>
+      <c r="B31" s="0">
+        <v>160.7612</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0011</v>
+      </c>
+      <c r="B32" s="0">
+        <v>142.8259</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0011</v>
+      </c>
+      <c r="B33" s="0">
+        <v>122.266</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>-0.0004</v>
+      </c>
+      <c r="B34" s="0">
+        <v>101.0499</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0004</v>
+      </c>
+      <c r="B35" s="0">
+        <v>82.4584</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0004</v>
+      </c>
+      <c r="B36" s="0">
+        <v>61.2423</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>-0.0004</v>
+      </c>
+      <c r="B37" s="0">
+        <v>40.4637</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>-0.0004</v>
+      </c>
+      <c r="B38" s="0">
+        <v>20.7787</v>
+      </c>
+    </row>
+    <row r="39"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9935</v>
+      </c>
+      <c r="B3" s="0">
+        <v>192.6947</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9747</v>
+      </c>
+      <c r="B4" s="0">
+        <v>186.5704</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9685</v>
+      </c>
+      <c r="B5" s="0">
+        <v>185.4768</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9001</v>
+      </c>
+      <c r="B6" s="0">
+        <v>182.6334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8759</v>
+      </c>
+      <c r="B7" s="0">
+        <v>182.6334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8697</v>
+      </c>
+      <c r="B8" s="0">
+        <v>181.5398</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8256</v>
+      </c>
+      <c r="B9" s="0">
+        <v>180.4462</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8194</v>
+      </c>
+      <c r="B10" s="0">
+        <v>180.4462</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.7477</v>
+      </c>
+      <c r="B11" s="0">
+        <v>180.0087</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="0">
+        <v>179.3526</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.6696</v>
+      </c>
+      <c r="B13" s="0">
+        <v>178.9151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.6008</v>
+      </c>
+      <c r="B14" s="0">
+        <v>177.6028</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.5501</v>
+      </c>
+      <c r="B15" s="0">
+        <v>177.8215</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.5194</v>
+      </c>
+      <c r="B16" s="0">
+        <v>177.1654</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4691</v>
+      </c>
+      <c r="B17" s="0">
+        <v>176.7279</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.4007</v>
+      </c>
+      <c r="B18" s="0">
+        <v>176.0717</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2997</v>
+      </c>
+      <c r="B19" s="0">
+        <v>174.5407</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2508</v>
+      </c>
+      <c r="B20" s="0">
+        <v>174.322</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.202</v>
+      </c>
+      <c r="B21" s="0">
+        <v>171.6973</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.1607</v>
+      </c>
+      <c r="B22" s="0">
+        <v>170.1662</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1412</v>
+      </c>
+      <c r="B23" s="0">
+        <v>169.0726</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1209</v>
+      </c>
+      <c r="B24" s="0">
+        <v>168.6352</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0999</v>
+      </c>
+      <c r="B25" s="0">
+        <v>167.7603</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0814</v>
+      </c>
+      <c r="B26" s="0">
+        <v>165.3543</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0684</v>
+      </c>
+      <c r="B27" s="0">
+        <v>164.9169</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0594</v>
+      </c>
+      <c r="B28" s="0">
+        <v>162.2922</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0507</v>
+      </c>
+      <c r="B29" s="0">
+        <v>161.1986</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0409</v>
+      </c>
+      <c r="B30" s="0">
+        <v>159.6675</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0315</v>
+      </c>
+      <c r="B31" s="0">
+        <v>156.8241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0235</v>
+      </c>
+      <c r="B32" s="0">
+        <v>154.1995</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0166</v>
+      </c>
+      <c r="B33" s="0">
+        <v>150.2625</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0105</v>
+      </c>
+      <c r="B34" s="0">
+        <v>145.4506</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0043</v>
+      </c>
+      <c r="B35" s="0">
+        <v>136.4829</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0014</v>
+      </c>
+      <c r="B36" s="0">
+        <v>123.1409</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0011</v>
+      </c>
+      <c r="B37" s="0">
+        <v>102.1435</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>-0.0007</v>
+      </c>
+      <c r="B38" s="0">
+        <v>82.4584</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>-0.0004</v>
+      </c>
+      <c r="B39" s="0">
+        <v>61.8985</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>-0.0007</v>
+      </c>
+      <c r="B40" s="0">
+        <v>41.9948</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>-0.0004</v>
+      </c>
+      <c r="B41" s="0">
+        <v>20.5599</v>
+      </c>
+    </row>
+    <row r="42"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>